--- a/atividade4/MOCK_DATA.xlsx
+++ b/atividade4/MOCK_DATA.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="248">
   <si>
     <t xml:space="preserve">url</t>
   </si>
@@ -611,6 +611,159 @@
   </si>
   <si>
     <t xml:space="preserve">insereNoInicio(ls,cadastraSite("phpbb.com","40.60.188.215"));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sites[0] = cadastraSite("ft.com","83.58.231.165");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sites[0]=cadastraSite("ft.com","83.58.231.165");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sites[1]=cadastraSite("un.org","153.14.188.74");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sites[2]=cadastraSite("360.cn","77.23.212.64");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sites[3]=cadastraSite("utexas.edu","154.84.51.18");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sites[4]=cadastraSite("jigsy.com","79.133.190.191");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sites[5]=cadastraSite("networkadvertising.org","44.215.163.47");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sites[6]=cadastraSite("exblog.jp","33.124.176.70");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sites[7]=cadastraSite("bravesites.com","41.79.185.136");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sites[8]=cadastraSite("scientificamerican.com","154.177.38.240");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sites[9]=cadastraSite("mail.ru","198.47.234.147");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sites[10]=cadastraSite("last.fm","226.130.219.46");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sites[11]=cadastraSite("friendfeed.com","57.244.226.201");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sites[12]=cadastraSite("hubpages.com","250.132.112.229");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sites[13]=cadastraSite("sbwire.com","77.241.60.188");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sites[14]=cadastraSite("mediafire.com","205.37.187.145");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sites[15]=cadastraSite("biglobe.ne.jp","225.197.167.95");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sites[16]=cadastraSite("si.edu","72.69.121.104");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sites[17]=cadastraSite("bravesites.com","241.23.51.33");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sites[18]=cadastraSite("g.co","13.68.1.94");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sites[19]=cadastraSite("columbia.edu","136.93.155.71");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sites[20]=cadastraSite("newyorker.com","174.115.101.157");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sites[21]=cadastraSite("blog.com","199.58.236.221");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sites[22]=cadastraSite("omniture.com","226.165.40.136");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sites[23]=cadastraSite("yellowbook.com","122.152.132.60");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sites[24]=cadastraSite("europa.eu","91.225.98.50");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sites[25]=cadastraSite("apple.com","96.28.64.179");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sites[26]=cadastraSite("dedecms.com","124.215.225.195");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sites[27]=cadastraSite("si.edu","168.15.206.9");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sites[28]=cadastraSite("goodreads.com","43.218.8.219");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sites[29]=cadastraSite("bizjournals.com","229.145.65.36");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sites[30]=cadastraSite("squidoo.com","37.88.166.204");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sites[31]=cadastraSite("webmd.com","135.189.33.79");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sites[32]=cadastraSite("admin.ch","95.100.207.80");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sites[33]=cadastraSite("spiegel.de","65.187.98.128");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sites[34]=cadastraSite("godaddy.com","25.20.15.213");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sites[35]=cadastraSite("who.int","168.127.114.201");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sites[36]=cadastraSite("army.mil","103.66.42.19");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sites[37]=cadastraSite("ebay.com","185.176.146.255");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sites[38]=cadastraSite("phoca.cz","21.21.79.127");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sites[39]=cadastraSite("lycos.com","72.104.184.141");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sites[40]=cadastraSite("pcworld.com","229.10.46.44");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sites[41]=cadastraSite("squidoo.com","245.206.112.188");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sites[42]=cadastraSite("symantec.com","200.233.57.32");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sites[43]=cadastraSite("ehow.com","114.246.229.171");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sites[44]=cadastraSite("baidu.com","30.147.50.250");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sites[45]=cadastraSite("theglobeandmail.com","232.231.113.139");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sites[46]=cadastraSite("tuttocitta.it","101.158.17.16");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sites[47]=cadastraSite("bravesites.com","111.134.248.163");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sites[48]=cadastraSite("theglobeandmail.com","43.203.12.13");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sites[49]=cadastraSite("phpbb.com","40.60.188.215");</t>
   </si>
 </sst>
 </file>
@@ -695,13 +848,17 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -722,13 +879,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S51"/>
+  <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="E38" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S2" activeCellId="0" sqref="S2:S51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="E49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P56" activeCellId="0" sqref="P56:P105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.47265625" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.48828125" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.86"/>
@@ -2040,6 +2197,761 @@
       </c>
       <c r="S51" s="0" t="s">
         <v>196</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J55" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="J56" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("sites[",E56,"]=",F56,";")</f>
+        <v>sites[0]=cadastraSite("ft.com","83.58.231.165");</v>
+      </c>
+      <c r="P56" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J57" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("sites[",E57,"]=",F57,";")</f>
+        <v>sites[1]=cadastraSite("un.org","153.14.188.74");</v>
+      </c>
+      <c r="P57" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E58" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="J58" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("sites[",E58,"]=",F58,";")</f>
+        <v>sites[2]=cadastraSite("360.cn","77.23.212.64");</v>
+      </c>
+      <c r="P58" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E59" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J59" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("sites[",E59,"]=",F59,";")</f>
+        <v>sites[3]=cadastraSite("utexas.edu","154.84.51.18");</v>
+      </c>
+      <c r="P59" s="0" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E60" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J60" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("sites[",E60,"]=",F60,";")</f>
+        <v>sites[4]=cadastraSite("jigsy.com","79.133.190.191");</v>
+      </c>
+      <c r="P60" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E61" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J61" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("sites[",E61,"]=",F61,";")</f>
+        <v>sites[5]=cadastraSite("networkadvertising.org","44.215.163.47");</v>
+      </c>
+      <c r="P61" s="0" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E62" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J62" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("sites[",E62,"]=",F62,";")</f>
+        <v>sites[6]=cadastraSite("exblog.jp","33.124.176.70");</v>
+      </c>
+      <c r="P62" s="0" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E63" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="J63" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("sites[",E63,"]=",F63,";")</f>
+        <v>sites[7]=cadastraSite("bravesites.com","41.79.185.136");</v>
+      </c>
+      <c r="P63" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E64" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="J64" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("sites[",E64,"]=",F64,";")</f>
+        <v>sites[8]=cadastraSite("scientificamerican.com","154.177.38.240");</v>
+      </c>
+      <c r="P64" s="0" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E65" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J65" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("sites[",E65,"]=",F65,";")</f>
+        <v>sites[9]=cadastraSite("mail.ru","198.47.234.147");</v>
+      </c>
+      <c r="P65" s="0" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E66" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="J66" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("sites[",E66,"]=",F66,";")</f>
+        <v>sites[10]=cadastraSite("last.fm","226.130.219.46");</v>
+      </c>
+      <c r="P66" s="0" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E67" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="J67" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("sites[",E67,"]=",F67,";")</f>
+        <v>sites[11]=cadastraSite("friendfeed.com","57.244.226.201");</v>
+      </c>
+      <c r="P67" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E68" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="J68" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("sites[",E68,"]=",F68,";")</f>
+        <v>sites[12]=cadastraSite("hubpages.com","250.132.112.229");</v>
+      </c>
+      <c r="P68" s="0" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E69" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="J69" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("sites[",E69,"]=",F69,";")</f>
+        <v>sites[13]=cadastraSite("sbwire.com","77.241.60.188");</v>
+      </c>
+      <c r="P69" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E70" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F70" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J70" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("sites[",E70,"]=",F70,";")</f>
+        <v>sites[14]=cadastraSite("mediafire.com","205.37.187.145");</v>
+      </c>
+      <c r="P70" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E71" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="J71" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("sites[",E71,"]=",F71,";")</f>
+        <v>sites[15]=cadastraSite("biglobe.ne.jp","225.197.167.95");</v>
+      </c>
+      <c r="P71" s="0" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E72" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="J72" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("sites[",E72,"]=",F72,";")</f>
+        <v>sites[16]=cadastraSite("si.edu","72.69.121.104");</v>
+      </c>
+      <c r="P72" s="0" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E73" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="F73" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J73" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("sites[",E73,"]=",F73,";")</f>
+        <v>sites[17]=cadastraSite("bravesites.com","241.23.51.33");</v>
+      </c>
+      <c r="P73" s="0" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E74" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="F74" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="J74" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("sites[",E74,"]=",F74,";")</f>
+        <v>sites[18]=cadastraSite("g.co","13.68.1.94");</v>
+      </c>
+      <c r="P74" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E75" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="F75" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="J75" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("sites[",E75,"]=",F75,";")</f>
+        <v>sites[19]=cadastraSite("columbia.edu","136.93.155.71");</v>
+      </c>
+      <c r="P75" s="0" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E76" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F76" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="J76" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("sites[",E76,"]=",F76,";")</f>
+        <v>sites[20]=cadastraSite("newyorker.com","174.115.101.157");</v>
+      </c>
+      <c r="P76" s="0" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E77" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="F77" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J77" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("sites[",E77,"]=",F77,";")</f>
+        <v>sites[21]=cadastraSite("blog.com","199.58.236.221");</v>
+      </c>
+      <c r="P77" s="0" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E78" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="F78" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="J78" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("sites[",E78,"]=",F78,";")</f>
+        <v>sites[22]=cadastraSite("omniture.com","226.165.40.136");</v>
+      </c>
+      <c r="P78" s="0" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E79" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="F79" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="J79" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("sites[",E79,"]=",F79,";")</f>
+        <v>sites[23]=cadastraSite("yellowbook.com","122.152.132.60");</v>
+      </c>
+      <c r="P79" s="0" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E80" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="F80" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="J80" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("sites[",E80,"]=",F80,";")</f>
+        <v>sites[24]=cadastraSite("europa.eu","91.225.98.50");</v>
+      </c>
+      <c r="P80" s="0" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E81" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="F81" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="J81" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("sites[",E81,"]=",F81,";")</f>
+        <v>sites[25]=cadastraSite("apple.com","96.28.64.179");</v>
+      </c>
+      <c r="P81" s="0" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E82" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="F82" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J82" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("sites[",E82,"]=",F82,";")</f>
+        <v>sites[26]=cadastraSite("dedecms.com","124.215.225.195");</v>
+      </c>
+      <c r="P82" s="0" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E83" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="F83" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="J83" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("sites[",E83,"]=",F83,";")</f>
+        <v>sites[27]=cadastraSite("si.edu","168.15.206.9");</v>
+      </c>
+      <c r="P83" s="0" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E84" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="F84" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J84" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("sites[",E84,"]=",F84,";")</f>
+        <v>sites[28]=cadastraSite("goodreads.com","43.218.8.219");</v>
+      </c>
+      <c r="P84" s="0" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E85" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="F85" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="J85" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("sites[",E85,"]=",F85,";")</f>
+        <v>sites[29]=cadastraSite("bizjournals.com","229.145.65.36");</v>
+      </c>
+      <c r="P85" s="0" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E86" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="F86" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="J86" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("sites[",E86,"]=",F86,";")</f>
+        <v>sites[30]=cadastraSite("squidoo.com","37.88.166.204");</v>
+      </c>
+      <c r="P86" s="0" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E87" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="F87" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="J87" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("sites[",E87,"]=",F87,";")</f>
+        <v>sites[31]=cadastraSite("webmd.com","135.189.33.79");</v>
+      </c>
+      <c r="P87" s="0" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E88" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="F88" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="J88" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("sites[",E88,"]=",F88,";")</f>
+        <v>sites[32]=cadastraSite("admin.ch","95.100.207.80");</v>
+      </c>
+      <c r="P88" s="0" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E89" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="F89" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="J89" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("sites[",E89,"]=",F89,";")</f>
+        <v>sites[33]=cadastraSite("spiegel.de","65.187.98.128");</v>
+      </c>
+      <c r="P89" s="0" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E90" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="F90" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="J90" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("sites[",E90,"]=",F90,";")</f>
+        <v>sites[34]=cadastraSite("godaddy.com","25.20.15.213");</v>
+      </c>
+      <c r="P90" s="0" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E91" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="F91" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="J91" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("sites[",E91,"]=",F91,";")</f>
+        <v>sites[35]=cadastraSite("who.int","168.127.114.201");</v>
+      </c>
+      <c r="P91" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E92" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="F92" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="J92" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("sites[",E92,"]=",F92,";")</f>
+        <v>sites[36]=cadastraSite("army.mil","103.66.42.19");</v>
+      </c>
+      <c r="P92" s="0" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E93" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="F93" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="J93" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("sites[",E93,"]=",F93,";")</f>
+        <v>sites[37]=cadastraSite("ebay.com","185.176.146.255");</v>
+      </c>
+      <c r="P93" s="0" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E94" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="F94" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="J94" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("sites[",E94,"]=",F94,";")</f>
+        <v>sites[38]=cadastraSite("phoca.cz","21.21.79.127");</v>
+      </c>
+      <c r="P94" s="0" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E95" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="F95" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="J95" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("sites[",E95,"]=",F95,";")</f>
+        <v>sites[39]=cadastraSite("lycos.com","72.104.184.141");</v>
+      </c>
+      <c r="P95" s="0" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E96" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="F96" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="J96" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("sites[",E96,"]=",F96,";")</f>
+        <v>sites[40]=cadastraSite("pcworld.com","229.10.46.44");</v>
+      </c>
+      <c r="P96" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E97" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="F97" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="J97" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("sites[",E97,"]=",F97,";")</f>
+        <v>sites[41]=cadastraSite("squidoo.com","245.206.112.188");</v>
+      </c>
+      <c r="P97" s="0" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E98" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="F98" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="J98" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("sites[",E98,"]=",F98,";")</f>
+        <v>sites[42]=cadastraSite("symantec.com","200.233.57.32");</v>
+      </c>
+      <c r="P98" s="0" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E99" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="F99" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="J99" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("sites[",E99,"]=",F99,";")</f>
+        <v>sites[43]=cadastraSite("ehow.com","114.246.229.171");</v>
+      </c>
+      <c r="P99" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E100" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="F100" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="J100" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("sites[",E100,"]=",F100,";")</f>
+        <v>sites[44]=cadastraSite("baidu.com","30.147.50.250");</v>
+      </c>
+      <c r="P100" s="0" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E101" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="F101" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="J101" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("sites[",E101,"]=",F101,";")</f>
+        <v>sites[45]=cadastraSite("theglobeandmail.com","232.231.113.139");</v>
+      </c>
+      <c r="P101" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E102" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="F102" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="J102" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("sites[",E102,"]=",F102,";")</f>
+        <v>sites[46]=cadastraSite("tuttocitta.it","101.158.17.16");</v>
+      </c>
+      <c r="P102" s="0" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E103" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="F103" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="J103" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("sites[",E103,"]=",F103,";")</f>
+        <v>sites[47]=cadastraSite("bravesites.com","111.134.248.163");</v>
+      </c>
+      <c r="P103" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E104" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="F104" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="J104" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("sites[",E104,"]=",F104,";")</f>
+        <v>sites[48]=cadastraSite("theglobeandmail.com","43.203.12.13");</v>
+      </c>
+      <c r="P104" s="0" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E105" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="F105" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="J105" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT("sites[",E105,"]=",F105,";")</f>
+        <v>sites[49]=cadastraSite("phpbb.com","40.60.188.215");</v>
+      </c>
+      <c r="P105" s="0" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
